--- a/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>28.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006080</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通电子信息传媒产业股票C</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006081</t>
+          <t>519033</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通电子信息传媒产业股票A</t>
+          <t>海富通国策导向混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519033</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通国策导向混合</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>006081</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>海富通电子信息传媒产业股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.15</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001970</t>
+          <t>006080</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合A</t>
+          <t>海富通电子信息传媒产业股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.87</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -693,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +792,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +822,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007345</t>
+          <t>002692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国科技创新灵活配置混合</t>
+          <t>富国创新科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>70.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +860,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501077</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.25</t>
+          <t>24.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7579</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +898,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006281</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家人工智能混合</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.95</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +936,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501039</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富睿丰混合（LOF）A</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +974,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501040</t>
+          <t>501077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富睿丰混合（LOF）C</t>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1012,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>007345</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>富国科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -912,15 +1060,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>96.44</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.85</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -930,26 +1088,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>001816</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>汇添富新睿精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -986,26 +1164,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>002164</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>汇添富新睿精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001816</t>
+          <t>006281</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富新睿精选灵活配置混合A</t>
+          <t>万家人工智能混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>76.75</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002164</t>
+          <t>011120</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富新睿精选灵活配置混合C</t>
+          <t>富国创新科技混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>76.75</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1080,15 +1288,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>92.64</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>7.20</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>501039</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>汇添富睿丰混合（LOF）A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002692</t>
+          <t>003064</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国创新科技混合A</t>
+          <t>南方荣欢定期开放混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011120</t>
+          <t>501040</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国创新科技混合C</t>
+          <t>汇添富睿丰混合（LOF）C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1182,26 +1430,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003064</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方荣欢定期开放混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>26.63</t>
-        </is>
-      </c>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -1454,6 +1454,478 @@
       </c>
       <c r="H18" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3955</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1931,4 +1932,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2444,4 +2445,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2453,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,17 +2465,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2484,14 +2505,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.33</v>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2500,14 +2543,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.210000000000001</v>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2516,14 +2581,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.65</v>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2532,13 +2619,1519 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4030,7 +4031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,17 +4042,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4061,14 +4082,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.25</v>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4077,14 +4120,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.33</v>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4093,14 +4158,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.210000000000001</v>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4109,14 +4196,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.65</v>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4125,13 +4234,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4657,7 +4658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4668,17 +4669,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4688,14 +4709,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.14</v>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4704,14 +4747,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.25</v>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4720,14 +4785,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.33</v>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4736,14 +4823,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.210000000000001</v>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4752,14 +4861,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.65</v>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4768,13 +4899,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.14</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>6.25</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>4.33</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>8.210000000000001</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>10.65</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.87</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1623,7 +1924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3199,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3711,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4183,7 +4484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4878,7 +5179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688608-恒玄科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>2.47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3.14</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>6.25</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>4.33</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>8.210000000000001</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>10.65</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.87</v>
       </c>
     </row>
@@ -616,7 +633,951 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>017288</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>017290</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,7 +2259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1924,7 +2885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3500,7 +4461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4012,7 +4973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4484,7 +5445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5177,324 +6138,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6894</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>290011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9769</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519033</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通国策导向混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0824</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0499</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006081</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0496</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006080</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>